--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -592,7 +592,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -852,9 +852,26 @@
         <v>SignedUp</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Signup1</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Jinwoo1</v>
+      </c>
+      <c r="C16" t="str">
+        <v>jinwoo1@teston.com</v>
+      </c>
+      <c r="D16" t="str">
+        <v>123456</v>
+      </c>
+      <c r="E16" t="str">
+        <v>SignedUp</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E16"/>
   </ignoredErrors>
 </worksheet>
 </file>
